--- a/Jogos_do_Dia/2023-02-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -774,13 +774,13 @@
         <v>48</v>
       </c>
       <c r="F3">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G3">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3.81</v>
       </c>
       <c r="I3">
         <v>1.06</v>
@@ -795,10 +795,10 @@
         <v>3.25</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="N3">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="O3">
         <v>1.4</v>
@@ -858,7 +858,7 @@
         <v>2.33</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -982,13 +982,13 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="G5">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="H5">
-        <v>8.5</v>
+        <v>6.43</v>
       </c>
       <c r="I5">
         <v>1.06</v>
@@ -1003,10 +1003,10 @@
         <v>3.25</v>
       </c>
       <c r="M5">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="N5">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="O5">
         <v>1.36</v>
@@ -1190,13 +1190,13 @@
         <v>52</v>
       </c>
       <c r="F7">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="G7">
-        <v>3.9</v>
+        <v>3.71</v>
       </c>
       <c r="H7">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="I7">
         <v>1.03</v>
@@ -1211,10 +1211,10 @@
         <v>4.35</v>
       </c>
       <c r="M7">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="N7">
-        <v>2.33</v>
+        <v>2.48</v>
       </c>
       <c r="O7">
         <v>1.33</v>
@@ -1297,10 +1297,10 @@
         <v>1.73</v>
       </c>
       <c r="G8">
-        <v>3.65</v>
+        <v>3.43</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="I8">
         <v>1.06</v>
@@ -1315,10 +1315,10 @@
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="N8">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="O8">
         <v>1.4</v>
@@ -1461,13 +1461,13 @@
         <v>2.51</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AD9">
         <v>1.24</v>
@@ -1565,13 +1565,13 @@
         <v>2.6</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AD10">
         <v>1.38</v>
@@ -1586,7 +1586,7 @@
         <v>3.1</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-02-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>1.8</v>
       </c>
       <c r="G3">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="H3">
-        <v>3.81</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>1.06</v>
@@ -795,10 +795,10 @@
         <v>3.25</v>
       </c>
       <c r="M3">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="N3">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="O3">
         <v>1.4</v>
@@ -822,10 +822,10 @@
         <v>1.91</v>
       </c>
       <c r="V3">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="W3">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X3">
         <v>1.91</v>
@@ -846,7 +846,7 @@
         <v>3.65</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE3">
         <v>1.53</v>
@@ -878,58 +878,58 @@
         <v>49</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V4">
+        <v>1.89</v>
+      </c>
+      <c r="W4">
         <v>2</v>
-      </c>
-      <c r="W4">
-        <v>2.13</v>
       </c>
       <c r="X4">
         <v>1.62</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="G5">
-        <v>4.25</v>
+        <v>3.88</v>
       </c>
       <c r="H5">
-        <v>6.43</v>
+        <v>7.2</v>
       </c>
       <c r="I5">
         <v>1.06</v>
@@ -1003,10 +1003,10 @@
         <v>3.25</v>
       </c>
       <c r="M5">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="N5">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="O5">
         <v>1.36</v>
@@ -1030,10 +1030,10 @@
         <v>3</v>
       </c>
       <c r="V5">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X5">
         <v>1.81</v>
@@ -1054,10 +1054,10 @@
         <v>5.5</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF5">
         <v>1.78</v>
@@ -1066,7 +1066,7 @@
         <v>2.2</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1086,58 +1086,58 @@
         <v>51</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3.87</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V6">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W6">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="X6">
         <v>1.74</v>
@@ -1149,28 +1149,28 @@
         <v>3.32</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1190,10 +1190,10 @@
         <v>52</v>
       </c>
       <c r="F7">
-        <v>4.15</v>
+        <v>5.02</v>
       </c>
       <c r="G7">
-        <v>3.71</v>
+        <v>3.17</v>
       </c>
       <c r="H7">
         <v>1.68</v>
@@ -1211,10 +1211,10 @@
         <v>4.35</v>
       </c>
       <c r="M7">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="N7">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="O7">
         <v>1.33</v>
@@ -1238,10 +1238,10 @@
         <v>1.23</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="W7">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="X7">
         <v>1.71</v>
@@ -1294,13 +1294,13 @@
         <v>53</v>
       </c>
       <c r="F8">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="G8">
-        <v>3.43</v>
+        <v>3.39</v>
       </c>
       <c r="H8">
-        <v>4.2</v>
+        <v>3.71</v>
       </c>
       <c r="I8">
         <v>1.06</v>
@@ -1315,10 +1315,10 @@
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="N8">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="O8">
         <v>1.4</v>
@@ -1342,10 +1342,10 @@
         <v>1.95</v>
       </c>
       <c r="V8">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="X8">
         <v>1.73</v>
